--- a/prime-insurance-report.xlsx
+++ b/prime-insurance-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179" count="179">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209" count="209">
   <x:si>
     <x:t>$__</x:t>
   </x:si>
@@ -551,6 +551,96 @@
   </x:si>
   <x:si>
     <x:t>{"_id":"6271751022c50bb6f15776d2","service":"Car Insurance","question":"Prime insurance 4","answer":1,"customerName":"Micha","customerPhone":"+250785063342","createdAt":"2022-05-03T18:31:44.051Z","updatedAt":"2022-05-03T18:31:44.051Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627763c58ad51f8c06ee8163","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:31:33.718Z","updatedAt":"2022-05-08T06:31:33.718Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627763c58ad51f8c06ee8165","service":"Car Insurance","question":"question1","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:31:33.719Z","updatedAt":"2022-05-08T06:31:33.719Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627763c58ad51f8c06ee8167","service":"Car Insurance","question":"question6","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:31:33.719Z","updatedAt":"2022-05-08T06:31:33.719Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627763c58ad51f8c06ee8164","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:31:33.719Z","updatedAt":"2022-05-08T06:31:33.719Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627763c58ad51f8c06ee8166","service":"Car Insurance","question":"question2","answer":5,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:31:33.719Z","updatedAt":"2022-05-08T06:31:33.719Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764a6afbff3738dd7c048","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:35:18.840Z","updatedAt":"2022-05-08T06:35:18.840Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764a6afbff3738dd7c047","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:35:18.839Z","updatedAt":"2022-05-08T06:35:18.839Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764a6afbff3738dd7c049","service":"Car Insurance","question":"question1","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:35:18.840Z","updatedAt":"2022-05-08T06:35:18.840Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764a6afbff3738dd7c04b","service":"Car Insurance","question":"question6","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:35:18.840Z","updatedAt":"2022-05-08T06:35:18.840Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764a6afbff3738dd7c04a","service":"Car Insurance","question":"question2","answer":5,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:35:18.840Z","updatedAt":"2022-05-08T06:35:18.840Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764daf41cd763a3e0fece","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:36:10.351Z","updatedAt":"2022-05-08T06:36:10.351Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764daf41cd763a3e0fed2","service":"Car Insurance","question":"question6","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:36:10.352Z","updatedAt":"2022-05-08T06:36:10.352Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764daf41cd763a3e0fed1","service":"Car Insurance","question":"question2","answer":5,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:36:10.352Z","updatedAt":"2022-05-08T06:36:10.352Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764daf41cd763a3e0fed0","service":"Car Insurance","question":"question1","answer":4,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:36:10.352Z","updatedAt":"2022-05-08T06:36:10.352Z","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[object Object]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"627764daf41cd763a3e0fecf","service":"Car Insurance","question":"question1","answer":3,"customerName":"Emmanuel","customerPhone":"0788596281","createdAt":"2022-05-08T06:36:10.352Z","updatedAt":"2022-05-08T06:36:10.352Z","__v":0}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1892,6 +1982,171 @@
         <x:v>178</x:v>
       </x:c>
     </x:row>
+    <x:row r="90" spans="1:3">
+      <x:c r="A90" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:3">
+      <x:c r="A91" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:3">
+      <x:c r="A92" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:3">
+      <x:c r="A93" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:3">
+      <x:c r="A94" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:3">
+      <x:c r="A95" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:3">
+      <x:c r="A96" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:3">
+      <x:c r="A97" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:3">
+      <x:c r="A98" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:3">
+      <x:c r="A99" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:3">
+      <x:c r="A100" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:3">
+      <x:c r="A101" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:3">
+      <x:c r="A102" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:3">
+      <x:c r="A103" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:3">
+      <x:c r="A104" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
